--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Valid</t>
   </si>
@@ -67,63 +67,72 @@
     <t>#</t>
   </si>
   <si>
-    <t>wellness</t>
-  </si>
-  <si>
-    <t>meredith.vanness</t>
-  </si>
-  <si>
-    <t>Meredith (Therapist and Life Coach)</t>
-  </si>
-  <si>
-    <t>https://www.balancedandwell.org/resources</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/meredith.vanness/</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>anxietyocdtreatment</t>
+  </si>
+  <si>
+    <t>Amanda Petrik-Gardner, LCPC</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/anxietyocd</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/anxietyocdtreatment/</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>🧠#Anxiety #OCD #BFRB Treatment
+💻Telehealth KS, CO, NE, MO, ME, MI, FL
+🖍Creator of #ocdcoloringbook on Amazon!
+📞Consultation and speaking events</t>
+  </si>
+  <si>
+    <t>neurodivergent_insights</t>
+  </si>
+  <si>
+    <t>Dr. Megan Anna Neff, Autistic-ADHD Clinician</t>
+  </si>
+  <si>
+    <t>https://linkin.bio/neurodivergent_insights</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/neurodivergent_insights/</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>🧠 Psychology Resident &amp; author
+📖Turning academic articles into visual pixels
+🚫 No medical advice
+👇Digital downloads &amp; infographics</t>
+  </si>
+  <si>
+    <t>theanxietymd</t>
+  </si>
+  <si>
+    <t>Russell Kennedy, MD + Neuroscientist</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/theanxietymd</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/theanxietymd/</t>
   </si>
   <si>
     <t>do</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>〰daily quick reminders to help manage  stress, anxiety and self-doubt.
-〰helpful tips to build confidence.
-〰online options open for September ⤵</t>
-  </si>
-  <si>
-    <t>healdocumentary</t>
-  </si>
-  <si>
-    <t>HEAL Documentary 🦋</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/healdocumentary</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/healdocumentary/</t>
-  </si>
-  <si>
-    <t>Documentary directed by @kellygores exploring the science &amp; spirituality behind the body's remarkable ability to HEAL. Order the companion book today!</t>
-  </si>
-  <si>
-    <t>medicalmedium</t>
-  </si>
-  <si>
-    <t>Medical Medium®</t>
-  </si>
-  <si>
-    <t>http://linktr.ee/medicalmedium</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/medicalmedium/</t>
-  </si>
-  <si>
-    <t>📚#1 NY Times Bestselling Author
-🎤Medical Medium Podcast 
-🙏🏼Helping people overcome illness 
-💚Originator of Global Celery Juice Movement</t>
+    <t>I wrote THE book on healing anxiety so you don’t have to suffer like I did.
+#1 Anxiety Physician + Somatic Intuitive.
+Get my audiobook/book here👇🏽</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>25439</v>
+        <v>45744</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -609,16 +618,16 @@
         <v>28</v>
       </c>
       <c r="K3" s="2">
-        <v>366635</v>
+        <v>81480</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -629,25 +638,28 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2">
-        <v>4078840</v>
+        <v>33400</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Valid</t>
   </si>
@@ -67,72 +67,58 @@
     <t>#</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>anxietyocdtreatment</t>
-  </si>
-  <si>
-    <t>Amanda Petrik-Gardner, LCPC</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/anxietyocd</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/anxietyocdtreatment/</t>
-  </si>
-  <si>
-    <t>health</t>
+    <t>bronchitis</t>
+  </si>
+  <si>
+    <t>beatrixpottersociety</t>
+  </si>
+  <si>
+    <t>The Beatrix Potter Society</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/thebeatrixpottersociety</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beatrixpottersociety/</t>
   </si>
   <si>
     <t>UNKNOWN</t>
   </si>
   <si>
-    <t>🧠#Anxiety #OCD #BFRB Treatment
-💻Telehealth KS, CO, NE, MO, ME, MI, FL
-🖍Creator of #ocdcoloringbook on Amazon!
-📞Consultation and speaking events</t>
-  </si>
-  <si>
-    <t>neurodivergent_insights</t>
-  </si>
-  <si>
-    <t>Dr. Megan Anna Neff, Autistic-ADHD Clinician</t>
-  </si>
-  <si>
-    <t>https://linkin.bio/neurodivergent_insights</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/neurodivergent_insights/</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>🧠 Psychology Resident &amp; author
-📖Turning academic articles into visual pixels
-🚫 No medical advice
-👇Digital downloads &amp; infographics</t>
-  </si>
-  <si>
-    <t>theanxietymd</t>
-  </si>
-  <si>
-    <t>Russell Kennedy, MD + Neuroscientist</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/theanxietymd</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/theanxietymd/</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>I wrote THE book on healing anxiety so you don’t have to suffer like I did.
-#1 Anxiety Physician + Somatic Intuitive.
-Get my audiobook/book here👇🏽</t>
+    <t>The Beatrix Potter Society is a registered charity and exists to promote the study and appreciation of the life and works of Beatrix Potter. Join us!</t>
+  </si>
+  <si>
+    <t>medicalmedium</t>
+  </si>
+  <si>
+    <t>Medical Medium®</t>
+  </si>
+  <si>
+    <t>http://linktr.ee/medicalmedium</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/medicalmedium/</t>
+  </si>
+  <si>
+    <t>📚#1 NY Times Bestselling Author
+🎤Medical Medium Podcast 
+🙏🏼Helping people overcome illness 
+💚Originator of Global Celery Juice Movement</t>
+  </si>
+  <si>
+    <t>petermlawrence</t>
+  </si>
+  <si>
+    <t>Peter M Lawrence</t>
+  </si>
+  <si>
+    <t>https://petermlawrence.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/petermlawrence/</t>
+  </si>
+  <si>
+    <t>✍🏻🧠 Official account of Peter M. Lawrence, visual artist, author, and senior medical illustrator at @barrowneuro</t>
   </si>
 </sst>
 </file>
@@ -586,16 +572,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>45744</v>
-      </c>
-      <c r="L2" t="s">
+        <v>14422</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -606,28 +589,25 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="2">
+        <v>4080322</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2">
-        <v>81480</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -638,28 +618,25 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="2">
+        <v>53153</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2">
-        <v>33400</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Valid</t>
   </si>
@@ -70,6 +70,32 @@
     <t>bronchitis</t>
   </si>
   <si>
+    <t>beckjstevens</t>
+  </si>
+  <si>
+    <t>Rebecca Stevens ~  Fashion tips + Reels</t>
+  </si>
+  <si>
+    <t>http://www.jasonstevensproductions.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beckjstevens/</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Stylist /Blogger/ TV Presenter
+🎥 @finallymemovie 
+👨 @bigjasonstevens 
+👦🏼 @littlepresleystevens 
+beckjstevensmail@gmail.com
+1 Cor 2:9</t>
+  </si>
+  <si>
     <t>beatrixpottersociety</t>
   </si>
   <si>
@@ -80,9 +106,6 @@
   </si>
   <si>
     <t>https://www.instagram.com/beatrixpottersociety/</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
   </si>
   <si>
     <t>The Beatrix Potter Society is a registered charity and exists to promote the study and appreciation of the life and works of Beatrix Potter. Join us!</t>
@@ -104,21 +127,6 @@
 🎤Medical Medium Podcast 
 🙏🏼Helping people overcome illness 
 💚Originator of Global Celery Juice Movement</t>
-  </si>
-  <si>
-    <t>petermlawrence</t>
-  </si>
-  <si>
-    <t>Peter M Lawrence</t>
-  </si>
-  <si>
-    <t>https://petermlawrence.com/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/petermlawrence/</t>
-  </si>
-  <si>
-    <t>✍🏻🧠 Official account of Peter M. Lawrence, visual artist, author, and senior medical illustrator at @barrowneuro</t>
   </si>
 </sst>
 </file>
@@ -572,13 +580,16 @@
         <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>14422</v>
+        <v>27761</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -589,25 +600,25 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2">
-        <v>4080322</v>
+        <v>14453</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -618,25 +629,25 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
-        <v>53153</v>
+        <v>4081267</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Valid</t>
   </si>
@@ -70,63 +70,25 @@
     <t>bronchitis</t>
   </si>
   <si>
-    <t>beckjstevens</t>
-  </si>
-  <si>
-    <t>Rebecca Stevens ~  Fashion tips + Reels</t>
-  </si>
-  <si>
-    <t>http://www.jasonstevensproductions.com/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/beckjstevens/</t>
-  </si>
-  <si>
-    <t>blog</t>
+    <t>migraineworldsummit</t>
+  </si>
+  <si>
+    <t>Migraine World Summit</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/Migraineworldsummit</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/migraineworldsummit/</t>
+  </si>
+  <si>
+    <t>do</t>
   </si>
   <si>
     <t>UNKNOWN</t>
   </si>
   <si>
-    <t>Stylist /Blogger/ TV Presenter
-🎥 @finallymemovie 
-👨 @bigjasonstevens 
-👦🏼 @littlepresleystevens 
-beckjstevensmail@gmail.com
-1 Cor 2:9</t>
-  </si>
-  <si>
-    <t>beatrixpottersociety</t>
-  </si>
-  <si>
-    <t>The Beatrix Potter Society</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/thebeatrixpottersociety</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/beatrixpottersociety/</t>
-  </si>
-  <si>
-    <t>The Beatrix Potter Society is a registered charity and exists to promote the study and appreciation of the life and works of Beatrix Potter. Join us!</t>
-  </si>
-  <si>
-    <t>medicalmedium</t>
-  </si>
-  <si>
-    <t>Medical Medium®</t>
-  </si>
-  <si>
-    <t>http://linktr.ee/medicalmedium</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/medicalmedium/</t>
-  </si>
-  <si>
-    <t>📚#1 NY Times Bestselling Author
-🎤Medical Medium Podcast 
-🙏🏼Helping people overcome illness 
-💚Originator of Global Celery Juice Movement</t>
+    <t>Annual free virtual summit with world leading migraine experts, doctors &amp; specialists.🧠</t>
   </si>
 </sst>
 </file>
@@ -504,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2">
-        <v>27761</v>
+        <v>17399</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -588,80 +550,18 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2">
-        <v>14453</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4081267</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>